--- a/进程.xlsx
+++ b/进程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,43 @@
   </si>
   <si>
     <t>面试时间：8月16-8月18日；对校招有影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月10开始在线测试；8月15开始电话面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360(内推)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册简历（内推通道）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.17-8.23面试 8.25-8.26能力测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能-视觉算法工程师
+测试（第二志愿）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,13 +178,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,13 +484,13 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="36.25" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="40.125" customWidth="1"/>
     <col min="6" max="6" width="37.125" customWidth="1"/>
@@ -525,18 +577,42 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>

--- a/进程.xlsx
+++ b/进程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,10 +114,6 @@
   </si>
   <si>
     <t>8月10开始在线测试；8月15开始电话面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -135,6 +131,137 @@
   <si>
     <t>人工智能-视觉算法工程师
 测试（第二志愿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康威视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册简历，已测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册简历，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品运营（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试时间：8月下旬-九月初，地点杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试时间：9月11日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”鹅厂wo谈会”在线宣讲会将在8月24日21:00首播</t>
+  </si>
+  <si>
+    <t>笔试：9月9日 面试时间：9月-10月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品策划/运营（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4C4C4C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试开发工程师（网易北京）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4C4C4C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4C4C4C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网易传媒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4C4C4C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4C4C4C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传媒技术部</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法工程师（机器视觉）
+算工（模式识别-智能家居）
+测试工程师
+杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商汤科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品经理
+计算机视觉&amp;机器学习算法研究员 
+测试工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已投递</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +269,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,13 +284,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,6 +352,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,19 +647,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="36.25" customWidth="1"/>
+    <col min="3" max="3" width="44.375" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="40.125" customWidth="1"/>
-    <col min="6" max="6" width="37.125" customWidth="1"/>
+    <col min="6" max="6" width="49.875" customWidth="1"/>
     <col min="7" max="7" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -590,50 +756,118 @@
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8">
+        <v>42958</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>42959</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>42961</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/进程.xlsx
+++ b/进程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,18 +142,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已注册简历，已测评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网易</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已注册简历，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>腾讯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,10 +159,6 @@
   </si>
   <si>
     <t>已投递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试时间：8月下旬-九月初，地点杭州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -240,13 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>算法工程师（机器视觉）
-算工（模式识别-智能家居）
-测试工程师
-杭州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商汤科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,6 +243,42 @@
   </si>
   <si>
     <t>已投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月中旬 宣讲+笔面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试工程师
+关注岗位放出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台型产品经理(技术领域)</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线笔试：8月23日至8月25日   面试：9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册简历，已测评</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,6 +383,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -780,42 +804,42 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>42959</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>43</v>
+      <c r="C7" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -823,50 +847,70 @@
         <v>42961</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>42962</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/进程.xlsx
+++ b/进程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>已注册简历，已测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品应用工程师（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -900,7 +912,7 @@
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -911,6 +923,20 @@
       </c>
       <c r="F12" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>42963</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/进程.xlsx
+++ b/进程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>群面+专业面，目前进入综合测评阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华为（提前批）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,19 +97,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大疆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已注册简历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月10开始在线测试；8月15开始电话面试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -270,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未测评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在线笔试：8月23日至8月25日   面试：9月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,6 +271,30 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注来校时间，可能无法参加技术岗面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月10-9月17开放题笔试/HR电面    8月15-9月23电话面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月21日关注招聘进程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,13 +398,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -683,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -716,10 +717,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -736,10 +737,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -747,15 +751,15 @@
         <v>42954</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -763,179 +767,170 @@
         <v>42954</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>42956</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>42958</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
-        <v>42958</v>
+        <v>42959</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>42961</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>42959</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>42962</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>42961</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
-        <v>42962</v>
+      <c r="A12" s="14">
+        <v>42963</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
-        <v>42963</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>55</v>
       </c>
     </row>

--- a/进程.xlsx
+++ b/进程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,7 +294,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8月21日关注招聘进程</t>
+    <t>9月17在线笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工信部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发邮件，等待邀请函</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法工程师（媒体）
+待补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测评</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,6 +436,9 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -934,6 +970,46 @@
         <v>55</v>
       </c>
     </row>
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>42967</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>42969</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>42972</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/进程.xlsx
+++ b/进程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,96 +238,118 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>阿里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台型产品经理(技术领域)</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线笔试：8月23日至8月25日   面试：9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册简历，已测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品应用工程师（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注来校时间，可能无法参加技术岗面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月10-9月17开放题笔试/HR电面    8月15-9月23电话面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月17在线笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工信部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发邮件，等待邀请函</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法工程师（媒体）
+技术研究工程师（媒体）8月23日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迈瑞（医疗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医学图像处理与人工智能
+产品工程师（影像产品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">测试工程师
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>测试工程师
-关注岗位放出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台型产品经理(技术领域)</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线笔试：8月23日至8月25日   面试：9月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已注册简历，已测评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大疆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品应用工程师（深圳）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注来校时间，可能无法参加技术岗面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已测评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已测评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月10-9月17开放题笔试/HR电面    8月15-9月23电话面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月17在线笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工信部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发邮件，等待邀请函</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法工程师（媒体）
-待补充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未测评</t>
+算法工程师（机器视觉）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,6 +460,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -720,9 +748,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -773,10 +801,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -846,7 +874,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>25</v>
@@ -870,7 +898,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>33</v>
@@ -927,7 +955,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -935,19 +963,19 @@
         <v>42962</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
         <v>45</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -955,37 +983,35 @@
         <v>42963</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="17">
         <v>42967</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>61</v>
+      <c r="B13" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E13" s="16"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -993,21 +1019,49 @@
         <v>42969</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <v>42970</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>42972</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
-        <v>42972</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/进程.xlsx
+++ b/进程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,15 +126,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>腾讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -305,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华为</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,6 +338,38 @@
   <si>
     <t>测试工程师
 算法工程师（机器视觉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试（还行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试（难）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度（用户名手机号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易（QQ邮箱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线笔试：9月17日左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈工大宣讲      19:00-21:00     活动中心214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -467,6 +487,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,15 +771,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="44.375" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="40.125" customWidth="1"/>
@@ -801,10 +824,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -874,34 +897,34 @@
         <v>24</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -909,53 +932,53 @@
         <v>42961</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -963,19 +986,19 @@
         <v>42962</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -983,19 +1006,19 @@
         <v>42963</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -1003,13 +1026,13 @@
         <v>42967</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="1"/>
@@ -1019,10 +1042,10 @@
         <v>42969</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -1030,38 +1053,73 @@
         <v>42970</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E15" s="18"/>
+      <c r="F15" s="19" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>42972</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>42973</v>
+      </c>
+      <c r="B18" s="4">
+        <v>360</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>42983</v>
+      </c>
+      <c r="B20" s="1">
+        <v>360</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/进程.xlsx
+++ b/进程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,40 +336,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>笔试（还行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试（难）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度（用户名手机号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易（QQ邮箱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线笔试：9月17日左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈工大宣讲      19:00-21:00     活动中心214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>测试工程师
-算法工程师（机器视觉）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试（还行）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试（难）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度（用户名手机号）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网易（QQ邮箱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线笔试：9月17日左右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝洁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈工大宣讲      19:00-21:00     活动中心214</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思科</t>
+售前工程师（深圳）
+算法工程师（感知类：视音频/图像/三维感知/全栈）-研究院(J10992)  8月29日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中电10所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中电38所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -889,7 +898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>42959</v>
       </c>
@@ -897,7 +906,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>25</v>
@@ -912,7 +921,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>33</v>
@@ -949,7 +958,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -1063,7 +1072,7 @@
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -1087,7 +1096,7 @@
         <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1098,12 +1107,12 @@
         <v>360</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1114,12 +1123,22 @@
         <v>360</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/进程.xlsx
+++ b/进程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
   </si>
   <si>
     <t>360(内推)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已注册简历（内推通道）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>笔试（还行）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>笔试（难）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,10 +349,6 @@
   </si>
   <si>
     <t>宝洁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈工大宣讲      19:00-21:00     活动中心214</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -379,6 +367,30 @@
   </si>
   <si>
     <t>中电38所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天二院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法工程师ITD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -833,10 +845,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -886,16 +898,16 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.2">
@@ -903,37 +915,37 @@
         <v>42959</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -941,53 +953,53 @@
         <v>42961</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -995,19 +1007,19 @@
         <v>42962</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1015,19 +1027,19 @@
         <v>42963</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -1035,13 +1047,13 @@
         <v>42967</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="1"/>
@@ -1051,10 +1063,10 @@
         <v>42969</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -1062,83 +1074,95 @@
         <v>42970</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>42972</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
-        <v>42973</v>
-      </c>
-      <c r="B18" s="4">
-        <v>360</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
-        <v>42983</v>
-      </c>
-      <c r="B20" s="1">
-        <v>360</v>
-      </c>
-      <c r="F20" t="s">
+        <v>42977</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>42985</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>42984</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>42982</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/进程.xlsx
+++ b/进程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,12 +393,37 @@
     <t>算法工程师ITD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>中电10所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万科（关注）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天院所没有对口岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理工程师
+测试工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海能达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +457,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -459,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -511,6 +543,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -835,7 +879,7 @@
       <c r="A2" s="2">
         <v>42930</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -914,7 +958,7 @@
       <c r="A6" s="8">
         <v>42959</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -1026,7 +1070,7 @@
       <c r="A12" s="14">
         <v>42963</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1046,7 +1090,7 @@
       <c r="A13" s="17">
         <v>42967</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1073,7 +1117,7 @@
       <c r="A15" s="17">
         <v>42970</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1126,6 +1170,36 @@
       </c>
       <c r="E18" s="1"/>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>42978</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <v>42980</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>69</v>
@@ -1163,6 +1237,9 @@
       </c>
       <c r="B30" s="1" t="s">
         <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/进程.xlsx
+++ b/进程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,10 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>航天二院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,10 +399,6 @@
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航天院所没有对口岗位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -416,6 +408,67 @@
   </si>
   <si>
     <t>海能达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天二院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25所（两个部门）/23所/203/南京长峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天三院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35所/8358</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像处理研究员/图像识别研究员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月21-24宣讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频分析算法研究员
+人工智能算法工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51job简历编号：1834</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -948,7 +1001,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>21</v>
@@ -1160,13 +1213,13 @@
         <v>42977</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1175,15 +1228,15 @@
         <v>42978</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1191,55 +1244,120 @@
         <v>42980</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>42982</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>82</v>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>42983</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
         <v>42985</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="14">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
         <v>42984</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="14">
-        <v>42982</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
